--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC32990-75AB-47D1-B2AF-5A11BD889E9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80CBE06-FE02-49C9-BE2A-45D40D6A5F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -410,10 +410,10 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -961,9 +961,9 @@
       <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -983,8 +983,12 @@
       <c r="B11" s="31">
         <v>46055</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="12">
+        <v>314042</v>
+      </c>
+      <c r="D11" s="36">
+        <v>170</v>
+      </c>
       <c r="E11" s="35"/>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
@@ -1124,9 +1128,9 @@
       <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1287,9 +1291,9 @@
       <c r="C24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -1450,9 +1454,9 @@
       <c r="C31" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="19"/>
@@ -1613,9 +1617,9 @@
       <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
@@ -1719,11 +1723,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>0</v>
+        <v>314042</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4903,7 +4907,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5105,9 +5109,9 @@
       <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -5127,9 +5131,13 @@
       <c r="B11" s="31">
         <v>46055</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>403660</v>
+      </c>
       <c r="D11" s="36"/>
-      <c r="E11" s="35"/>
+      <c r="E11" s="38">
+        <v>112.75</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5268,9 +5276,9 @@
       <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -5431,9 +5439,9 @@
       <c r="C24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -5594,9 +5602,9 @@
       <c r="C31" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="19"/>
@@ -5757,9 +5765,9 @@
       <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
@@ -5863,7 +5871,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>0</v>
+        <v>403660</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -5871,7 +5879,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>112.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9046,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9249,9 +9257,9 @@
       <c r="C10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -9271,9 +9279,13 @@
       <c r="B11" s="31">
         <v>46055</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>293070</v>
+      </c>
       <c r="D11" s="36"/>
-      <c r="E11" s="35"/>
+      <c r="E11" s="38">
+        <v>1008.5</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -9412,9 +9424,9 @@
       <c r="C17" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -9575,9 +9587,9 @@
       <c r="C24" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="7"/>
@@ -9738,9 +9750,9 @@
       <c r="C31" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="19"/>
@@ -9901,9 +9913,9 @@
       <c r="C38" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="7"/>
@@ -10007,7 +10019,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>0</v>
+        <v>293070</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -10015,7 +10027,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>1008.5</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80CBE06-FE02-49C9-BE2A-45D40D6A5F1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E328392-8435-46AE-A296-70AC68883B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1010,8 +1010,12 @@
       <c r="B12" s="31">
         <v>46056</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="12">
+        <v>263815</v>
+      </c>
+      <c r="D12" s="13">
+        <v>221.25</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -1723,11 +1727,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>314042</v>
+        <v>577857</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>170</v>
+        <v>391.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4907,7 +4911,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5158,8 +5162,12 @@
       <c r="B12" s="31">
         <v>46056</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="12">
+        <v>216897</v>
+      </c>
+      <c r="D12" s="13">
+        <v>105.5</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -5871,11 +5879,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>403660</v>
+        <v>620557</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>105.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9055,7 +9063,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9306,8 +9314,12 @@
       <c r="B12" s="31">
         <v>46056</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="12">
+        <v>355427</v>
+      </c>
+      <c r="D12" s="13">
+        <v>479</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="11"/>
       <c r="G12" s="1"/>
@@ -10019,11 +10031,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>293070</v>
+        <v>648497</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E328392-8435-46AE-A296-70AC68883B17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FEA452-B74E-4E63-B0B2-4C95D25EA64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1037,8 +1037,12 @@
       <c r="B13" s="31">
         <v>46057</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="37">
+        <v>198091</v>
+      </c>
+      <c r="D13" s="36">
+        <v>19.25</v>
+      </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="1"/>
@@ -1727,11 +1731,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>577857</v>
+        <v>775948</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>391.25</v>
+        <v>410.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4911,7 +4915,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5189,9 +5193,13 @@
       <c r="B13" s="31">
         <v>46057</v>
       </c>
-      <c r="C13" s="36"/>
+      <c r="C13" s="37">
+        <v>176482</v>
+      </c>
       <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="E13" s="37">
+        <v>215.25</v>
+      </c>
       <c r="F13" s="36"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5879,7 +5887,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>620557</v>
+        <v>797039</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -5887,7 +5895,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>112.75</v>
+        <v>328</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9063,7 +9071,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9341,8 +9349,12 @@
       <c r="B13" s="31">
         <v>46057</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
+      <c r="C13" s="37">
+        <v>505520</v>
+      </c>
+      <c r="D13" s="36">
+        <v>636.25</v>
+      </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="1"/>
@@ -10031,11 +10043,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>648497</v>
+        <v>1154017</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>479</v>
+        <v>1115.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FEA452-B74E-4E63-B0B2-4C95D25EA64B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB341765-3423-435C-95A5-881FC67D54FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1064,8 +1064,12 @@
       <c r="B14" s="31">
         <v>46058</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="12">
+        <v>205773</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1520</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="36"/>
       <c r="G14" s="1"/>
@@ -1731,11 +1735,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>775948</v>
+        <v>981721</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>410.5</v>
+        <v>1930.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4915,7 +4919,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5220,9 +5224,13 @@
       <c r="B14" s="31">
         <v>46058</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12">
+        <v>187600</v>
+      </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>311</v>
+      </c>
       <c r="F14" s="36"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5887,7 +5895,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>797039</v>
+        <v>984639</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -5895,7 +5903,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>328</v>
+        <v>639</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9071,7 +9079,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9376,9 +9384,13 @@
       <c r="B14" s="31">
         <v>46058</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="12">
+        <v>206767</v>
+      </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <v>37.5</v>
+      </c>
       <c r="F14" s="36"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -10043,7 +10055,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1154017</v>
+        <v>1360784</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -10051,7 +10063,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1008.5</v>
+        <v>1046</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB341765-3423-435C-95A5-881FC67D54FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0675B1-3FA8-4FC4-B455-76ADDDA664B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1065,10 +1065,10 @@
         <v>46058</v>
       </c>
       <c r="C14" s="12">
-        <v>205773</v>
+        <v>194843</v>
       </c>
       <c r="D14" s="13">
-        <v>1520</v>
+        <v>320</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="36"/>
@@ -1735,11 +1735,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>981721</v>
+        <v>970791</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1930.5</v>
+        <v>730.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9078,7 +9078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0675B1-3FA8-4FC4-B455-76ADDDA664B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54D3EB-D330-416B-956C-A20921CB474F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>SALES</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>NO TRIP</t>
   </si>
 </sst>
 </file>
@@ -758,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1091,8 +1094,12 @@
       <c r="B15" s="31">
         <v>46059</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="12">
+        <v>175949</v>
+      </c>
+      <c r="D15" s="15">
+        <v>115.5</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
@@ -1735,11 +1742,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>970791</v>
+        <v>1146740</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>730.5</v>
+        <v>846</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4919,7 +4926,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5251,9 +5258,13 @@
       <c r="B15" s="31">
         <v>46059</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="12">
+        <v>191902</v>
+      </c>
       <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <v>0.75</v>
+      </c>
       <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -5895,7 +5906,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>984639</v>
+        <v>1176541</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -5903,7 +5914,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>639</v>
+        <v>639.75</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9078,8 +9089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9411,10 +9422,12 @@
       <c r="B15" s="31">
         <v>46059</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -13222,12 +13235,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F54D3EB-D330-416B-956C-A20921CB474F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC7DA2A-4F9E-405A-BFF2-019376F1214D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1121,8 +1121,12 @@
       <c r="B16" s="31">
         <v>46060</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="37">
+        <v>173376</v>
+      </c>
+      <c r="D16" s="36">
+        <v>25.75</v>
+      </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="1"/>
@@ -1742,11 +1746,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1146740</v>
+        <v>1320116</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>846</v>
+        <v>871.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4926,7 +4930,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5285,8 +5289,12 @@
       <c r="B16" s="31">
         <v>46060</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="37">
+        <v>267745</v>
+      </c>
+      <c r="D16" s="36">
+        <v>31.5</v>
+      </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="1"/>
@@ -5906,11 +5914,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1176541</v>
+        <v>1444286</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>105.5</v>
+        <v>137</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9090,7 +9098,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9447,8 +9455,12 @@
       <c r="B16" s="31">
         <v>46060</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
+      <c r="C16" s="37">
+        <v>294192</v>
+      </c>
+      <c r="D16" s="36">
+        <v>73.5</v>
+      </c>
       <c r="E16" s="36"/>
       <c r="F16" s="36"/>
       <c r="G16" s="1"/>
@@ -10068,11 +10080,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1360784</v>
+        <v>1654976</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1115.25</v>
+        <v>1188.75</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC7DA2A-4F9E-405A-BFF2-019376F1214D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08773759-34DD-4FE9-A589-7B080F43E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1173,9 +1173,13 @@
       <c r="B18" s="31">
         <v>46062</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>305952</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>6</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1746,7 +1750,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1320116</v>
+        <v>1626068</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -4930,7 +4934,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5341,9 +5345,13 @@
       <c r="B18" s="31">
         <v>46062</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>336387</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>383.5</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -5914,7 +5922,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1444286</v>
+        <v>1780673</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -5922,7 +5930,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>639.75</v>
+        <v>1023.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>
@@ -9098,7 +9106,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9507,9 +9515,13 @@
       <c r="B18" s="31">
         <v>46062</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="12">
+        <v>309916.5</v>
+      </c>
       <c r="D18" s="15"/>
-      <c r="E18" s="12"/>
+      <c r="E18" s="12">
+        <v>101</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -10080,7 +10092,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1654976</v>
+        <v>1964892.5</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -10088,7 +10100,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1046</v>
+        <v>1147</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08773759-34DD-4FE9-A589-7B080F43E803}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD52F72-A6E2-433A-B3E6-D70C5BA04738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -762,7 +762,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1200,8 +1200,12 @@
       <c r="B19" s="31">
         <v>46063</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="12">
+        <v>197103</v>
+      </c>
+      <c r="D19" s="36">
+        <v>123.72</v>
+      </c>
       <c r="E19" s="38"/>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
@@ -1223,8 +1227,12 @@
       <c r="B20" s="31">
         <v>46064</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="37">
+        <v>809196</v>
+      </c>
+      <c r="D20" s="36">
+        <v>226</v>
+      </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="1"/>
@@ -1750,11 +1758,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1626068</v>
+        <v>2632367</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>871.75</v>
+        <v>1221.47</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4934,7 +4942,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5372,8 +5380,12 @@
       <c r="B19" s="31">
         <v>46063</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="36"/>
+      <c r="C19" s="12">
+        <v>205618</v>
+      </c>
+      <c r="D19" s="36">
+        <v>564.75</v>
+      </c>
       <c r="E19" s="38"/>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
@@ -5395,8 +5407,12 @@
       <c r="B20" s="31">
         <v>46064</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="37">
+        <v>170729</v>
+      </c>
+      <c r="D20" s="36">
+        <v>50.5</v>
+      </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="1"/>
@@ -5922,11 +5938,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1780673</v>
+        <v>2157020</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>137</v>
+        <v>752.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9106,7 +9122,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9542,9 +9558,13 @@
       <c r="B19" s="31">
         <v>46063</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12">
+        <v>317068</v>
+      </c>
       <c r="D19" s="36"/>
-      <c r="E19" s="38"/>
+      <c r="E19" s="38">
+        <v>118</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -9565,8 +9585,12 @@
       <c r="B20" s="31">
         <v>46064</v>
       </c>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
+      <c r="C20" s="37">
+        <v>295569</v>
+      </c>
+      <c r="D20" s="36">
+        <v>552.5</v>
+      </c>
       <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="1"/>
@@ -10092,15 +10116,15 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>1964892.5</v>
+        <v>2577529.5</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1188.75</v>
+        <v>1741.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1147</v>
+        <v>1265</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD52F72-A6E2-433A-B3E6-D70C5BA04738}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88AE6D-CA3F-4070-8AF2-8691591EC242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
@@ -9122,7 +9122,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE88AE6D-CA3F-4070-8AF2-8691591EC242}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03CEAA3-5C20-4DAC-A9E7-6C537C0D6F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -761,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1254,8 +1254,12 @@
       <c r="B21" s="31">
         <v>46065</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="12">
+        <v>280577</v>
+      </c>
+      <c r="D21" s="13">
+        <v>76.5</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -1758,11 +1762,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>2632367</v>
+        <v>2912944</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1221.47</v>
+        <v>1297.97</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -4942,7 +4946,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5434,8 +5438,12 @@
       <c r="B21" s="31">
         <v>46065</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="12">
+        <v>233825</v>
+      </c>
+      <c r="D21" s="13">
+        <v>370</v>
+      </c>
       <c r="E21" s="12"/>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
@@ -5938,11 +5946,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>2157020</v>
+        <v>2390845</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>752.25</v>
+        <v>1122.25</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
@@ -9121,8 +9129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9612,9 +9620,13 @@
       <c r="B21" s="31">
         <v>46065</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="12">
+        <v>188141</v>
+      </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
+      <c r="E21" s="12">
+        <v>505.25</v>
+      </c>
       <c r="F21" s="35"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -10116,7 +10128,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>2577529.5</v>
+        <v>2765670.5</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -10124,7 +10136,7 @@
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
-        <v>1265</v>
+        <v>1770.25</v>
       </c>
       <c r="F43" s="18">
         <f>SUM(F10:F42)</f>

--- a/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
+++ b/GBDS FEBRUARY FILES 2026/SHORT OVER ALL ROUTES - FEBRUARY 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GBDS FEBRUARY FILES 2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03CEAA3-5C20-4DAC-A9E7-6C537C0D6F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8174DF1-6E89-46B2-8123-0D1C3AA5171A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B997F013-12E6-4AA2-8A9D-EFCC32EA76C2}"/>
   </bookViews>
   <sheets>
     <sheet name="FEBRUARY, SRS R1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
   <si>
     <t>SALES</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>NO TRIP</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -348,7 +351,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,6 +420,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -761,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392DCC38-B676-43F3-B392-E571D3EDC2BC}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1281,10 +1290,12 @@
       <c r="B22" s="31">
         <v>46066</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="34"/>
+      <c r="C22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="41"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -4929,12 +4940,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4946,7 +4958,7 @@
   <dimension ref="A1:Q279"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5465,9 +5477,13 @@
       <c r="B22" s="31">
         <v>46066</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
+      <c r="C22" s="12">
+        <v>163881</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="43"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5946,7 +5962,7 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>2390845</v>
+        <v>2554726</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
@@ -9113,12 +9129,13 @@
       <c r="E279"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -9129,8 +9146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E737051-E669-4C2F-B4D4-F8B394C392B3}">
   <dimension ref="A1:Q279"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9647,8 +9664,12 @@
       <c r="B22" s="31">
         <v>46066</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="12">
+        <v>195791</v>
+      </c>
+      <c r="D22" s="15">
+        <v>71.25</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="34"/>
       <c r="G22" s="1"/>
@@ -10128,11 +10149,11 @@
       <c r="B43" s="31"/>
       <c r="C43" s="18">
         <f>SUM(C10:C42)</f>
-        <v>2765670.5</v>
+        <v>2961461.5</v>
       </c>
       <c r="D43" s="32">
         <f>SUM(D10:D42)</f>
-        <v>1741.25</v>
+        <v>1812.5</v>
       </c>
       <c r="E43" s="18">
         <f>SUM(E10:E42)</f>
